--- a/biology/Médecine/MALAT1/MALAT1.xlsx
+++ b/biology/Médecine/MALAT1/MALAT1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MALAT1 (pour « metastasis associated lung adenocarcinoma transcript 1 ») est un long ARN non codant. Son gène est MALAT1 situé sur le chromosome 11 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé particulièrement au niveau des poumons et du pancréas[3].
-Dans les cancers, il intervient dans la migration cellulaire et l'invasion des tissus sains[4].
-Au niveau vasculaire, il favorise le développement des cellules endothéliales[5], des cellules musculaires lisses[6] et de la vascularisation. Chez le diabétique, il intervient ainsi dans la néovascularisation[7].
-Au niveau moléculaire, il interagit avec la voie du P38-MAPK[7]. Il inhibe l'expression du TNF-alpha et de l'interleukine 6 en empêchant la fixation du NF-κB sur l'ADN[8]. Il favorise certains types d'épissage en jouant sur la phosphorylation de certains facteurs[9]. Il cible également plusieurs micro-ARNs, dont le 506[10], le 1[11], le 200[12], 145[13] et le 206[14], ce qui favorise la prolifération de certains cancers. De même, son interaction avec le miR-101b régule l'expression du RAC1, favorisant la fibrose hépatique[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé particulièrement au niveau des poumons et du pancréas.
+Dans les cancers, il intervient dans la migration cellulaire et l'invasion des tissus sains.
+Au niveau vasculaire, il favorise le développement des cellules endothéliales, des cellules musculaires lisses et de la vascularisation. Chez le diabétique, il intervient ainsi dans la néovascularisation.
+Au niveau moléculaire, il interagit avec la voie du P38-MAPK. Il inhibe l'expression du TNF-alpha et de l'interleukine 6 en empêchant la fixation du NF-κB sur l'ADN. Il favorise certains types d'épissage en jouant sur la phosphorylation de certains facteurs. Il cible également plusieurs micro-ARNs, dont le 506, le 1, le 200, 145 et le 206, ce qui favorise la prolifération de certains cancers. De même, son interaction avec le miR-101b régule l'expression du RAC1, favorisant la fibrose hépatique.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé par de nombreux cancers dont certains cancers bronchiques non à petites cellules et sa présence semble corrélée avec un risque plus important de métastases[3].
-Il serait protecteur quant à la formation de l'athérome, inhibant la prolifération des cellules hématopoïétiques[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé par de nombreux cancers dont certains cancers bronchiques non à petites cellules et sa présence semble corrélée avec un risque plus important de métastases.
+Il serait protecteur quant à la formation de l'athérome, inhibant la prolifération des cellules hématopoïétiques.
 </t>
         </is>
       </c>
